--- a/Week6/Output/herfindahlindex.xlsx
+++ b/Week6/Output/herfindahlindex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guanz\Desktop\JIW2\Week6\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3B56A4E-8C28-44AC-9C36-7CBDE452D69A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C0140-0D8C-4D33-864E-A0E891550F13}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12547" windowHeight="7473" xr2:uid="{F86CDC48-5BC6-4B19-B510-C9FF06E9709B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Individual Group Herfindal Indexes Per State for 2014 Benefit year</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>2015 minus 2014</t>
+  </si>
+  <si>
+    <t>2016 minus 2015</t>
+  </si>
+  <si>
+    <t>Averages</t>
   </si>
 </sst>
 </file>
@@ -547,13 +556,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117CF749-DFC2-4198-AB54-1CFEFEC9820A}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -575,8 +586,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -598,8 +615,16 @@
       <c r="G2">
         <v>4207.6528687999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H2">
+        <f>D2-B2</f>
+        <v>155.75128486999984</v>
+      </c>
+      <c r="I2">
+        <f>F2-D2</f>
+        <v>655.43827070000043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -621,8 +646,16 @@
       <c r="G3">
         <v>9380.3668261900002</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H3">
+        <f t="shared" ref="H3:H51" si="0">D3-B3</f>
+        <v>-1374.0148641499991</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I51" si="1">F3-D3</f>
+        <v>-1490.91842722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -644,8 +677,16 @@
       <c r="G4">
         <v>2800.4859519900001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-634.9540856399999</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>-522.32261000000017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -667,8 +708,16 @@
       <c r="G5">
         <v>2156.8471808300001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-445.88346628999989</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>13.303374780000013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -690,8 +739,16 @@
       <c r="G6">
         <v>2159.51275713</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-84.823177390000183</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>145.73446233000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -713,8 +770,16 @@
       <c r="G7">
         <v>1988.9635513799999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>63.044145200000003</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>387.95682044000023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -736,8 +801,16 @@
       <c r="G8">
         <v>2201.1076489299999</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-500.71170014000018</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>287.05785264999986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -759,8 +832,16 @@
       <c r="G9">
         <v>3602.5139785800002</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>197.02885146000017</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>301.70834895000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -782,8 +863,16 @@
       <c r="G10">
         <v>7404.6695570900001</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>112.06297984000003</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>749.81064616999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -805,8 +894,16 @@
       <c r="G11">
         <v>1443.2554744500001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-530.09817960000009</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>113.50125006999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -828,8 +925,16 @@
       <c r="G12">
         <v>1840.7386757899999</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-132.0093281999998</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>-897.92361467000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -851,8 +956,16 @@
       <c r="G13">
         <v>3259.6876826900002</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>101.21879189000083</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>119.53830708999976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -874,8 +987,16 @@
       <c r="G14">
         <v>4828.0397229700002</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-247.02862162000019</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>-466.72308129999965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -897,8 +1018,16 @@
       <c r="G15">
         <v>3619.8430711400001</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-185.68521791999956</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>-800.75600023000015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -920,8 +1049,16 @@
       <c r="G16">
         <v>5047.1193489200004</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-6.8046321400006491</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>-2335.1899980799999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -943,8 +1080,16 @@
       <c r="G17">
         <v>3270.2587151500002</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-2405.55621539</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>-741.37497576999976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -966,8 +1111,16 @@
       <c r="G18">
         <v>4248.9131502399996</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>-385.71919556000012</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>-66.631719760000124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -989,8 +1142,16 @@
       <c r="G19">
         <v>3996.1213522100002</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>43.763534260000142</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>2087.4794312599997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1012,8 +1173,16 @@
       <c r="G20">
         <v>3816.7404931400001</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>-1371.3277918799995</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>-419.24869916000034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1035,8 +1204,16 @@
       <c r="G21">
         <v>2633.7793901499999</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>-306.97571657999993</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>234.73584664000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1058,8 +1235,16 @@
       <c r="G22">
         <v>3550.1620535100001</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>757.22638148999977</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>-418.85221017999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1081,8 +1266,16 @@
       <c r="G23">
         <v>2019.5876427400001</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>561.60743414999979</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>-1229.7177362599996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1104,8 +1297,16 @@
       <c r="G24">
         <v>2303.9423806300001</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>-520.65821671000003</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>-27.487098879999849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1127,8 +1328,16 @@
       <c r="G25">
         <v>3325.0821306399998</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1106.0789901000003</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>-2187.69978322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1150,8 +1359,16 @@
       <c r="G26">
         <v>2346.2889943</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>-296.03914913000017</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>-603.4349671299999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1173,8 +1390,16 @@
       <c r="G27">
         <v>6894.2325652199997</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>-407.5588144999997</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>-744.76336003000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1196,8 +1421,16 @@
       <c r="G28">
         <v>7051.1245098099998</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>194.52773779000017</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>1461.7374689599997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1219,8 +1452,16 @@
       <c r="G29">
         <v>3503.0555924999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>-1552.3133094800005</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>-1667.9632664599994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1242,8 +1483,16 @@
       <c r="G30">
         <v>7150.1706702299998</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>-964.46848233999935</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>-332.71566222999991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1265,8 +1514,16 @@
       <c r="G31">
         <v>4038.64308691</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>-779.38145511999937</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>-378.40605528000015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1288,8 +1545,16 @@
       <c r="G32">
         <v>3122.1101128800001</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>-1754.6758083600002</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>-857.49426078999977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1311,8 +1576,16 @@
       <c r="G33">
         <v>3231.4248775900001</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>-89.67317254999989</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>292.08132271999966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1334,8 +1607,16 @@
       <c r="G34">
         <v>2367.6903929</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>-1192.9306798500002</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>-145.83766028000036</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1357,8 +1638,16 @@
       <c r="G35">
         <v>1562.82982984</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>-4.9576551899999686</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>646.98237883000024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1380,8 +1669,16 @@
       <c r="G36">
         <v>2045.07498738</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>117.06461691899995</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>-52.937995249999972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1403,8 +1700,16 @@
       <c r="G37">
         <v>2340.37051995</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>-747.87720634999982</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>-23.420283140000038</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1426,8 +1731,16 @@
       <c r="G38">
         <v>5520.6144646499997</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>1443.8025269699992</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>77.380563690001509</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1449,8 +1762,16 @@
       <c r="G39">
         <v>1583.3143697600001</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>-623.31016399000009</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>412.53636799000014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1472,8 +1793,16 @@
       <c r="G40">
         <v>1113.67015958</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>-262.99283938999997</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>-569.8672251800001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1495,8 +1824,16 @@
       <c r="G41">
         <v>6876.2689362800002</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>-4148.6906971500002</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>108.16015110999979</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1518,8 +1855,16 @@
       <c r="G42">
         <v>4316.2138986099999</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>-423.89234101000011</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>1956.8365418700005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1541,8 +1886,16 @@
       <c r="G43">
         <v>4961.6218735900002</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>-818.9780360499999</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>-640.88107083999967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1564,8 +1917,16 @@
       <c r="G44">
         <v>4520.89621429</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>-880.82403575999979</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>-2325.0096333900001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1587,8 +1948,16 @@
       <c r="G45">
         <v>3901.9396904099999</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>-835.48832683000001</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>-2246.1620047499996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1610,8 +1979,16 @@
       <c r="G46">
         <v>4264.1800103699998</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>137.08083953999994</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>1247.2218953399997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1633,8 +2010,16 @@
       <c r="G47">
         <v>1416.6438124399999</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>-507.64523879000012</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>61.736497820000068</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1656,8 +2041,16 @@
       <c r="G48">
         <v>3269.7724084500001</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>-102.22811505999994</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>-57.207299760000069</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1679,8 +2072,16 @@
       <c r="G49">
         <v>1486.4172789500001</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>-208.38647425599993</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>270.90486646599993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1702,8 +2103,16 @@
       <c r="G50">
         <v>6679.8447059399996</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>1453.3732203300005</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>-290.41574924000088</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1724,6 +2133,43 @@
       </c>
       <c r="G51">
         <v>7682.1207109400002</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>1398.4702203800002</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>5135.5494806900006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <f>AVERAGE(B2:B51)</f>
+        <v>4144.215204417419</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:G52" si="2">AVERAGE(C2:C51)</f>
+        <v>3547.7111649536005</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>3786.3659873138795</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>3581.1789702691981</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>3670.8865812755998</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>3767.0385255811984</v>
       </c>
     </row>
   </sheetData>
